--- a/hardware/KiCad/nixieAccurateClock/boost-convertor-calcs.xlsx
+++ b/hardware/KiCad/nixieAccurateClock/boost-convertor-calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwillis\Documents\GitHub\nixie-clock-ice\KiCad\nixieAccurateClock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\KiCad\nixieAccurateClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8592B6-A259-48C0-B338-C852C709900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581B951-A69D-449A-9D89-8EFB4146BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="0" windowWidth="25580" windowHeight="15260" activeTab="1" xr2:uid="{4C5F7C1F-78F8-476C-9393-F25C88E783DB}"/>
+    <workbookView xWindow="9576" yWindow="6768" windowWidth="25656" windowHeight="15588" xr2:uid="{4C5F7C1F-78F8-476C-9393-F25C88E783DB}"/>
   </bookViews>
   <sheets>
     <sheet name="HV supply" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Calcs from Art of Electronics - 3rd Edition, Section 9.6.6.a Boost convertor equations (continuous-conduction mode)</t>
   </si>
@@ -81,9 +81,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>Coilcraft MSS1583-824</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>20V</t>
+    <t>Wurth 7447709471</t>
   </si>
 </sst>
 </file>
@@ -191,7 +188,127 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -266,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -412,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,357 +681,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3FE33C-00CB-4DD1-9E2D-595A71855D92}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <f>6*(2.5+0.3)*0.001</f>
-        <v>1.6799999999999999E-2</v>
+        <f>6*2.5*0.001*4</f>
+        <v>0.06</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <f>6*(2.5+0.3)*0.001</f>
-        <v>1.6799999999999999E-2</v>
+        <f>6*2.5*0.001*4</f>
+        <v>0.06</v>
       </c>
       <c r="E5">
-        <f>6*(2.5+0.3)*0.001</f>
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="H5">
-        <f>6*(2.5+0.3)*0.001</f>
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <f>12*(2.5+0.3)*0.001*4</f>
+        <v>0.13439999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>4.75</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>4.75</v>
       </c>
       <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>47000</v>
+        <v>100000</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>47000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="1">
-        <v>47000</v>
-      </c>
-      <c r="H7" s="1">
-        <v>219000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>100000</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
         <f>1/B7</f>
-        <v>2.1276595744680852E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <f>1/D7</f>
-        <v>2.1276595744680852E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E8">
         <f>1/E7</f>
-        <v>2.1276595744680852E-5</v>
-      </c>
-      <c r="H8">
-        <f>1/H7</f>
-        <v>4.5662100456621006E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>8.1999999999999998E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>8.1999999999999998E-4</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="E9" s="1">
-        <v>8.1999999999999998E-4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.5E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <f>B5/B14/B6</f>
-        <v>4.9411764705882345E-6</v>
+        <v>2.9721362229102167E-4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <f>D5/D14/D6</f>
-        <v>5.5999999999999997E-6</v>
+        <v>3.6090225563909775E-4</v>
       </c>
       <c r="E12">
         <f>E5/E14/E6</f>
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="H12">
-        <f>H5/H14/H6</f>
-        <v>1.6799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5.6589473684210518E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
         <f>B8/B9*B6*B15</f>
-        <v>0.45788943496443735</v>
+        <v>8.9768460575719647E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <f>D8/D9*D6*D15</f>
-        <v>0.44974917834284739</v>
+        <v>8.7348024316109427E-2</v>
       </c>
       <c r="E13">
         <f>E8/E9*E6*E15</f>
-        <v>0.46951837299528021</v>
-      </c>
-      <c r="H13">
-        <f>H8/H9*H6*H15</f>
-        <v>1.1415525114155249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9.1462765957446818E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>170</v>
+        <f>170/4</f>
+        <v>42.5</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <f>140/4</f>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>210</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <f>200/4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2">
         <f>1-(B6/B14)</f>
-        <v>0.88235294117647056</v>
+        <v>0.88823529411764701</v>
       </c>
       <c r="D15" s="2">
         <f>1-(D6/D14)</f>
-        <v>0.8666666666666667</v>
+        <v>0.86428571428571432</v>
       </c>
       <c r="E15" s="2">
         <f>1-(E6/E14)</f>
-        <v>0.90476190476190477</v>
-      </c>
-      <c r="H15" s="2">
-        <f>1-(H6/H14)</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
         <f>B8/(2*B9)*B14*B15*POWER(1-B15,2)</f>
-        <v>2.693467264496691E-2</v>
+        <v>5.0164727968784566E-3</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <f>D8/(2*D9)*D14*D15*POWER(1-D15,2)</f>
-        <v>2.9983278556189808E-2</v>
+        <v>5.9271873643074223E-3</v>
       </c>
       <c r="E16">
         <f>E8/(2*E9)*E14*E15*POWER(1-E15,2)</f>
-        <v>2.2358017761680001E-2</v>
-      </c>
-      <c r="H16">
-        <f>H8/(2*H9)*H14*H15*POWER(1-H15,2)</f>
-        <v>0.14269406392694062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.3444813829787215E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17">
         <f>B5/(1-B15)</f>
-        <v>0.14279999999999995</v>
+        <v>0.53684210526315768</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <f>D5/(1-D15)</f>
-        <v>0.12600000000000003</v>
+        <v>0.44210526315789483</v>
       </c>
       <c r="E17">
         <f>E5/(1-E15)</f>
-        <v>0.1764</v>
-      </c>
-      <c r="H17">
-        <f>H5/(1-H15)</f>
-        <v>6.7199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.4147368421052635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
         <f>B5/(1-B15)+(B8/(2*B9)*B6*B15)</f>
-        <v>0.3717447174822186</v>
+        <v>0.58172633555101749</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <f>D5/(1-D15)+(D8/(2*D9)*D6*D15)</f>
-        <v>0.35087458917142372</v>
+        <v>0.48577927531594955</v>
       </c>
       <c r="E18">
         <f>E5/(1-E15)+(E8/(2*E9)*E6*E15)</f>
-        <v>0.41115918649764011</v>
-      </c>
-      <c r="H18">
-        <f>H5/(1-H15)+(H8/(2*H9)*H6*H15)</f>
-        <v>0.63797625570776251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.4604682250839869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f>B8/(2*B5)*POWER(B6/B14,2)*(B14-B6)</f>
-        <v>1.3146685457662416E-3</v>
+        <v>3.9295703575547875E-5</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
         <f>D8/(2*D5)*POWER(D6/D14,2)*(D14-D6)</f>
-        <v>1.4634695485759319E-3</v>
-      </c>
-      <c r="E19">
+        <v>4.6429634353741497E-5</v>
+      </c>
+      <c r="E19" s="1">
         <f>E8/(2*E5)*POWER(E6/E14,2)*(E14-E6)</f>
-        <v>1.0912842002724764E-3</v>
-      </c>
-      <c r="H19">
-        <f>H8/(2*H5)*POWER(H6/H14,2)*(H14-H6)</f>
-        <v>1.2740541422048273E-4</v>
+        <v>1.5192754836309526E-5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThanOrEqual">
       <formula>$B$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
       <formula>$B$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>$B$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -922,144 +995,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC08BD06-1481-42B4-888E-47F007A488BE}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>27000</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1">
-        <v>33000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(('HV supply'!D14*4)-B1)/B3</f>
+        <v>-1.8518518518518518E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
-        <f>('HV supply'!D14-B1)/B3</f>
-        <v>1.5151515151515152E-4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <f>(('HV supply'!B14*4)-B1)/B3</f>
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
-        <f>('HV supply'!B14-B1)/B3</f>
-        <v>7.5757575757575758E-4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" s="1">
-        <f>('HV supply'!E14-B1)/B3</f>
-        <v>1.9696969696969698E-3</v>
+        <f>(('HV supply'!E14*4)-B1)/B3</f>
+        <v>2.0370370370370369E-3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <f>B4*B3</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <f>B5*B3</f>
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1">
         <f>B6*B3</f>
-        <v>65</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <f>B4*B8</f>
-        <v>7.5757575757575758E-4</v>
+        <v>9.2592592592592585E-4</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
         <f>B5*B9</f>
-        <v>1.893939393939394E-2</v>
+        <v>2.314814814814815E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <f>B6*B10</f>
-        <v>0.12803030303030305</v>
+        <v>0.11203703703703702</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/KiCad/nixieAccurateClock/boost-convertor-calcs.xlsx
+++ b/hardware/KiCad/nixieAccurateClock/boost-convertor-calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Nextcloud\Documents\Projects\nixieclock\nixie-clock-ice\hardware\KiCad\nixieAccurateClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581B951-A69D-449A-9D89-8EFB4146BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00F341B-EEF3-4DB8-9F6A-83A90CC4D300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9576" yWindow="6768" windowWidth="25656" windowHeight="15588" xr2:uid="{4C5F7C1F-78F8-476C-9393-F25C88E783DB}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>Wurth 7447709471</t>
+    <t>Bourns SRR1280-100M</t>
   </si>
 </sst>
 </file>
@@ -188,107 +188,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -715,19 +615,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <f>6*2.5*0.001*4</f>
-        <v>0.06</v>
+        <f>6*2.5*0.001*B14*4/B6</f>
+        <v>0.5368421052631579</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
-        <f>6*2.5*0.001*4</f>
-        <v>0.06</v>
+        <f>6*2.5*0.001*D14*4/D6</f>
+        <v>0.44210526315789478</v>
       </c>
       <c r="E5">
-        <f>12*(2.5+0.3)*0.001*4</f>
-        <v>0.13439999999999999</v>
+        <f>12*(2.5+0.3)*0.001*E14*4/E6</f>
+        <v>1.4147368421052631</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -790,16 +690,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>4.6999999999999999E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>4.6999999999999999E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E9" s="1">
-        <v>4.6999999999999999E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -809,18 +709,18 @@
       </c>
       <c r="B12">
         <f>B5/B14/B6</f>
-        <v>2.9721362229102167E-4</v>
+        <v>2.6592797783933516E-3</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12">
         <f>D5/D14/D6</f>
-        <v>3.6090225563909775E-4</v>
+        <v>2.659279778393352E-3</v>
       </c>
       <c r="E12">
         <f>E5/E14/E6</f>
-        <v>5.6589473684210518E-4</v>
+        <v>5.9567867036011074E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -829,18 +729,18 @@
       </c>
       <c r="B13">
         <f>B8/B9*B6*B15</f>
-        <v>8.9768460575719647E-2</v>
+        <v>4.2191176470588232</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
         <f>D8/D9*D6*D15</f>
-        <v>8.7348024316109427E-2</v>
+        <v>4.1053571428571427</v>
       </c>
       <c r="E13">
         <f>E8/E9*E6*E15</f>
-        <v>9.1462765957446818E-2</v>
+        <v>4.2987500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -887,18 +787,18 @@
       </c>
       <c r="B16">
         <f>B8/(2*B9)*B14*B15*POWER(1-B15,2)</f>
-        <v>5.0164727968784566E-3</v>
+        <v>0.23577422145328741</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16">
         <f>D8/(2*D9)*D14*D15*POWER(1-D15,2)</f>
-        <v>5.9271873643074223E-3</v>
+        <v>0.27857780612244881</v>
       </c>
       <c r="E16">
         <f>E8/(2*E9)*E14*E15*POWER(1-E15,2)</f>
-        <v>4.3444813829787215E-3</v>
+        <v>0.20419062499999988</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -907,18 +807,18 @@
       </c>
       <c r="B17">
         <f>B5/(1-B15)</f>
-        <v>0.53684210526315768</v>
+        <v>4.8033240997229898</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17">
         <f>D5/(1-D15)</f>
-        <v>0.44210526315789483</v>
+        <v>3.2576177285318573</v>
       </c>
       <c r="E17">
         <f>E5/(1-E15)</f>
-        <v>1.4147368421052635</v>
+        <v>14.891966759002774</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -927,18 +827,18 @@
       </c>
       <c r="B18">
         <f>B5/(1-B15)+(B8/(2*B9)*B6*B15)</f>
-        <v>0.58172633555101749</v>
+        <v>6.9128829232524014</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18">
         <f>D5/(1-D15)+(D8/(2*D9)*D6*D15)</f>
-        <v>0.48577927531594955</v>
+        <v>5.3102962999604291</v>
       </c>
       <c r="E18">
         <f>E5/(1-E15)+(E8/(2*E9)*E6*E15)</f>
-        <v>1.4604682250839869</v>
+        <v>17.041341759002773</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,42 +847,42 @@
       </c>
       <c r="B19" s="1">
         <f>B8/(2*B5)*POWER(B6/B14,2)*(B14-B6)</f>
-        <v>3.9295703575547875E-5</v>
+        <v>4.3918727525612327E-6</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1">
         <f>D8/(2*D5)*POWER(D6/D14,2)*(D14-D6)</f>
-        <v>4.6429634353741497E-5</v>
+        <v>6.3011646622934883E-6</v>
       </c>
       <c r="E19" s="1">
         <f>E8/(2*E5)*POWER(E6/E14,2)*(E14-E6)</f>
-        <v>1.5192754836309526E-5</v>
+        <v>1.4433117094494048E-6</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThanOrEqual">
       <formula>$B$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
       <formula>$B$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>$B$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$B$19</formula>
     </cfRule>
   </conditionalFormatting>
